--- a/biology/Botanique/Uromyces_pisi-sativi/Uromyces_pisi-sativi.xlsx
+++ b/biology/Botanique/Uromyces_pisi-sativi/Uromyces_pisi-sativi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Uromyces pisi-sativi, agent de la rouille du pois, est une espèce de champignons phytopathogènes. Il vit surtout sur des espèces de plantes de la famille des Fabaceae, en particulier dans les genres Pisum et Lathyrus.
 On le trouve aussi sur l'euphorbe petit-cyprès, Euphorbia cyparissias, dont il transforme radicalement l'aspect. Les tiges infestées ne sont pas ramifiées, portent des feuilles entières et ne fleurissent pas. Le bouquet terminal en pseudofleur est collant car il produit un nectar fongique. Autrement dit, le champignon utilise la plante pour assurer sa reproduction. On observe les sores sur la face inférieure des feuilles.
